--- a/data/enge/AY/Output/base.ENGE_1993a2022_wider.id.xlsx
+++ b/data/enge/AY/Output/base.ENGE_1993a2022_wider.id.xlsx
@@ -203,7 +203,7 @@
     <t xml:space="preserve">VAB.por.ocupado</t>
   </si>
   <si>
-    <t xml:space="preserve">pesosmiles</t>
+    <t xml:space="preserve">pesos.miles</t>
   </si>
   <si>
     <t xml:space="preserve">VBP</t>

--- a/data/enge/AY/Output/base.ENGE_1993a2022_wider.id.xlsx
+++ b/data/enge/AY/Output/base.ENGE_1993a2022_wider.id.xlsx
@@ -67560,23 +67560,37 @@
         <v>2023</v>
       </c>
       <c r="C1067" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D1067" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1067" t="n">
-        <v>240817</v>
-      </c>
-      <c r="F1067"/>
-      <c r="G1067"/>
-      <c r="H1067"/>
-      <c r="I1067"/>
-      <c r="J1067"/>
+        <v>38.2</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>71.2</v>
+      </c>
       <c r="K1067"/>
       <c r="L1067"/>
-      <c r="M1067"/>
-      <c r="N1067"/>
+      <c r="M1067" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>22.5</v>
+      </c>
       <c r="O1067"/>
       <c r="P1067"/>
       <c r="Q1067"/>
@@ -67585,13 +67599,27 @@
       <c r="T1067"/>
       <c r="U1067"/>
       <c r="V1067"/>
-      <c r="W1067"/>
-      <c r="X1067"/>
-      <c r="Y1067"/>
-      <c r="Z1067"/>
-      <c r="AA1067"/>
-      <c r="AB1067"/>
-      <c r="AC1067"/>
+      <c r="W1067" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="X1067" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="Y1067" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="Z1067" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AA1067" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="AB1067" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AC1067" t="n">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" t="s">
@@ -67601,23 +67629,37 @@
         <v>2023</v>
       </c>
       <c r="C1068" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D1068" t="s">
         <v>33</v>
       </c>
       <c r="E1068" t="n">
-        <v>9949940</v>
-      </c>
-      <c r="F1068"/>
-      <c r="G1068"/>
-      <c r="H1068"/>
-      <c r="I1068"/>
-      <c r="J1068"/>
+        <v>193330098</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>45058276</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>84839169</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>23550369</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>28878806</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>18095828</v>
+      </c>
       <c r="K1068"/>
       <c r="L1068"/>
-      <c r="M1068"/>
-      <c r="N1068"/>
+      <c r="M1068" t="n">
+        <v>27987800</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>11827125</v>
+      </c>
       <c r="O1068"/>
       <c r="P1068"/>
       <c r="Q1068"/>
@@ -67626,13 +67668,27 @@
       <c r="T1068"/>
       <c r="U1068"/>
       <c r="V1068"/>
-      <c r="W1068"/>
-      <c r="X1068"/>
-      <c r="Y1068"/>
-      <c r="Z1068"/>
-      <c r="AA1068"/>
-      <c r="AB1068"/>
-      <c r="AC1068"/>
+      <c r="W1068" t="n">
+        <v>584747</v>
+      </c>
+      <c r="X1068" t="n">
+        <v>11323954</v>
+      </c>
+      <c r="Y1068" t="n">
+        <v>2405464</v>
+      </c>
+      <c r="Z1068" t="n">
+        <v>1229641</v>
+      </c>
+      <c r="AA1068" t="n">
+        <v>10303109</v>
+      </c>
+      <c r="AB1068" t="n">
+        <v>7418526</v>
+      </c>
+      <c r="AC1068" t="n">
+        <v>4666452</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" t="s">
@@ -67642,13 +67698,13 @@
         <v>2023</v>
       </c>
       <c r="C1069" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D1069" t="s">
         <v>33</v>
       </c>
       <c r="E1069" t="n">
-        <v>8396286</v>
+        <v>240817</v>
       </c>
       <c r="F1069"/>
       <c r="G1069"/>
@@ -67683,13 +67739,13 @@
         <v>2023</v>
       </c>
       <c r="C1070" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1070" t="s">
         <v>33</v>
       </c>
       <c r="E1070" t="n">
-        <v>133560</v>
+        <v>9949940</v>
       </c>
       <c r="F1070"/>
       <c r="G1070"/>
@@ -67724,23 +67780,37 @@
         <v>2023</v>
       </c>
       <c r="C1071" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D1071" t="s">
         <v>33</v>
       </c>
       <c r="E1071" t="n">
-        <v>1000159</v>
-      </c>
-      <c r="F1071"/>
-      <c r="G1071"/>
-      <c r="H1071"/>
-      <c r="I1071"/>
-      <c r="J1071"/>
+        <v>4822364</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>2180570</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>1060694</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>327153</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>339144</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>183003</v>
+      </c>
       <c r="K1071"/>
       <c r="L1071"/>
-      <c r="M1071"/>
-      <c r="N1071"/>
+      <c r="M1071" t="n">
+        <v>548213</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>622280</v>
+      </c>
       <c r="O1071"/>
       <c r="P1071"/>
       <c r="Q1071"/>
@@ -67749,13 +67819,27 @@
       <c r="T1071"/>
       <c r="U1071"/>
       <c r="V1071"/>
-      <c r="W1071"/>
-      <c r="X1071"/>
-      <c r="Y1071"/>
-      <c r="Z1071"/>
-      <c r="AA1071"/>
-      <c r="AB1071"/>
-      <c r="AC1071"/>
+      <c r="W1071" t="n">
+        <v>7093</v>
+      </c>
+      <c r="X1071" t="n">
+        <v>162431</v>
+      </c>
+      <c r="Y1071" t="n">
+        <v>41870</v>
+      </c>
+      <c r="Z1071" t="n">
+        <v>20088</v>
+      </c>
+      <c r="AA1071" t="n">
+        <v>149069</v>
+      </c>
+      <c r="AB1071" t="n">
+        <v>178329</v>
+      </c>
+      <c r="AC1071" t="n">
+        <v>63122</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" t="s">
@@ -67765,23 +67849,37 @@
         <v>2023</v>
       </c>
       <c r="C1072" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D1072" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1072" t="n">
-        <v>1234207</v>
-      </c>
-      <c r="F1072"/>
-      <c r="G1072"/>
-      <c r="H1072"/>
-      <c r="I1072"/>
-      <c r="J1072"/>
+        <v>16.4</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>7.9</v>
+      </c>
       <c r="K1072"/>
       <c r="L1072"/>
-      <c r="M1072"/>
-      <c r="N1072"/>
+      <c r="M1072" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>36.5</v>
+      </c>
       <c r="O1072"/>
       <c r="P1072"/>
       <c r="Q1072"/>
@@ -67790,13 +67888,27 @@
       <c r="T1072"/>
       <c r="U1072"/>
       <c r="V1072"/>
-      <c r="W1072"/>
-      <c r="X1072"/>
-      <c r="Y1072"/>
-      <c r="Z1072"/>
-      <c r="AA1072"/>
-      <c r="AB1072"/>
-      <c r="AC1072"/>
+      <c r="W1072" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X1072" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y1072" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="Z1072" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA1072" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB1072" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AC1072" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" t="s">
@@ -67806,23 +67918,37 @@
         <v>2023</v>
       </c>
       <c r="C1073" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D1073" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1073" t="n">
-        <v>100488</v>
-      </c>
-      <c r="F1073"/>
-      <c r="G1073"/>
-      <c r="H1073"/>
-      <c r="I1073"/>
-      <c r="J1073"/>
+        <v>189.8</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>217</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>320.7</v>
+      </c>
       <c r="K1073"/>
       <c r="L1073"/>
-      <c r="M1073"/>
-      <c r="N1073"/>
+      <c r="M1073" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>192.6</v>
+      </c>
       <c r="O1073"/>
       <c r="P1073"/>
       <c r="Q1073"/>
@@ -67831,13 +67957,27 @@
       <c r="T1073"/>
       <c r="U1073"/>
       <c r="V1073"/>
-      <c r="W1073"/>
-      <c r="X1073"/>
-      <c r="Y1073"/>
-      <c r="Z1073"/>
-      <c r="AA1073"/>
-      <c r="AB1073"/>
-      <c r="AC1073"/>
+      <c r="W1073" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="X1073" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="Y1073" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="Z1073" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="AA1073" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="AB1073" t="n">
+        <v>211.9</v>
+      </c>
+      <c r="AC1073" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" t="s">
@@ -67847,23 +67987,37 @@
         <v>2023</v>
       </c>
       <c r="C1074" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D1074" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1074" t="n">
-        <v>16087</v>
-      </c>
-      <c r="F1074"/>
-      <c r="G1074"/>
-      <c r="H1074"/>
-      <c r="I1074"/>
-      <c r="J1074"/>
+        <v>52.2</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>-53.7</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>763.4</v>
+      </c>
       <c r="K1074"/>
       <c r="L1074"/>
-      <c r="M1074"/>
-      <c r="N1074"/>
+      <c r="M1074" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>-42.5</v>
+      </c>
       <c r="O1074"/>
       <c r="P1074"/>
       <c r="Q1074"/>
@@ -67872,13 +68026,27 @@
       <c r="T1074"/>
       <c r="U1074"/>
       <c r="V1074"/>
-      <c r="W1074"/>
-      <c r="X1074"/>
-      <c r="Y1074"/>
-      <c r="Z1074"/>
-      <c r="AA1074"/>
-      <c r="AB1074"/>
-      <c r="AC1074"/>
+      <c r="W1074" t="n">
+        <v>1231.1</v>
+      </c>
+      <c r="X1074" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="Y1074" t="n">
+        <v>328.3</v>
+      </c>
+      <c r="Z1074" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="AA1074" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="AB1074" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AC1074" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" t="s">
@@ -67888,23 +68056,37 @@
         <v>2023</v>
       </c>
       <c r="C1075" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D1075" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1075" t="n">
-        <v>56355</v>
-      </c>
-      <c r="F1075"/>
-      <c r="G1075"/>
-      <c r="H1075"/>
-      <c r="I1075"/>
-      <c r="J1075"/>
+        <v>36.6</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>26.1</v>
+      </c>
       <c r="K1075"/>
       <c r="L1075"/>
-      <c r="M1075"/>
-      <c r="N1075"/>
+      <c r="M1075" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>45.9</v>
+      </c>
       <c r="O1075"/>
       <c r="P1075"/>
       <c r="Q1075"/>
@@ -67913,13 +68095,27 @@
       <c r="T1075"/>
       <c r="U1075"/>
       <c r="V1075"/>
-      <c r="W1075"/>
-      <c r="X1075"/>
-      <c r="Y1075"/>
-      <c r="Z1075"/>
-      <c r="AA1075"/>
-      <c r="AB1075"/>
-      <c r="AC1075"/>
+      <c r="W1075" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="X1075" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="Y1075" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z1075" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA1075" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB1075" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="AC1075" t="n">
+        <v>53.5</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" t="s">
@@ -67929,23 +68125,37 @@
         <v>2023</v>
       </c>
       <c r="C1076" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D1076" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1076" t="n">
-        <v>70244</v>
-      </c>
-      <c r="F1076"/>
-      <c r="G1076"/>
-      <c r="H1076"/>
-      <c r="I1076"/>
-      <c r="J1076"/>
+        <v>18.6</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>18.2</v>
+      </c>
       <c r="K1076"/>
       <c r="L1076"/>
-      <c r="M1076"/>
-      <c r="N1076"/>
+      <c r="M1076" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>19.9</v>
+      </c>
       <c r="O1076"/>
       <c r="P1076"/>
       <c r="Q1076"/>
@@ -67954,13 +68164,27 @@
       <c r="T1076"/>
       <c r="U1076"/>
       <c r="V1076"/>
-      <c r="W1076"/>
-      <c r="X1076"/>
-      <c r="Y1076"/>
-      <c r="Z1076"/>
-      <c r="AA1076"/>
-      <c r="AB1076"/>
-      <c r="AC1076"/>
+      <c r="W1076" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="X1076" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Y1076" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Z1076" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA1076" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AB1076" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AC1076" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" t="s">
@@ -67970,23 +68194,37 @@
         <v>2023</v>
       </c>
       <c r="C1077" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D1077" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1077" t="n">
-        <v>45354</v>
-      </c>
-      <c r="F1077"/>
-      <c r="G1077"/>
-      <c r="H1077"/>
-      <c r="I1077"/>
-      <c r="J1077"/>
+        <v>36.1</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>33.6</v>
+      </c>
       <c r="K1077"/>
       <c r="L1077"/>
-      <c r="M1077"/>
-      <c r="N1077"/>
+      <c r="M1077" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>45.4</v>
+      </c>
       <c r="O1077"/>
       <c r="P1077"/>
       <c r="Q1077"/>
@@ -67995,13 +68233,27 @@
       <c r="T1077"/>
       <c r="U1077"/>
       <c r="V1077"/>
-      <c r="W1077"/>
-      <c r="X1077"/>
-      <c r="Y1077"/>
-      <c r="Z1077"/>
-      <c r="AA1077"/>
-      <c r="AB1077"/>
-      <c r="AC1077"/>
+      <c r="W1077" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="X1077" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="Y1077" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Z1077" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA1077" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AB1077" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="AC1077" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" t="s">
@@ -68011,23 +68263,37 @@
         <v>2023</v>
       </c>
       <c r="C1078" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D1078" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1078" t="n">
-        <v>188041</v>
-      </c>
-      <c r="F1078"/>
-      <c r="G1078"/>
-      <c r="H1078"/>
-      <c r="I1078"/>
-      <c r="J1078"/>
+        <v>68.8</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>81</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>82.6</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>92.7</v>
+      </c>
       <c r="K1078"/>
       <c r="L1078"/>
-      <c r="M1078"/>
-      <c r="N1078"/>
+      <c r="M1078" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>58.7</v>
+      </c>
       <c r="O1078"/>
       <c r="P1078"/>
       <c r="Q1078"/>
@@ -68036,13 +68302,27 @@
       <c r="T1078"/>
       <c r="U1078"/>
       <c r="V1078"/>
-      <c r="W1078"/>
-      <c r="X1078"/>
-      <c r="Y1078"/>
-      <c r="Z1078"/>
-      <c r="AA1078"/>
-      <c r="AB1078"/>
-      <c r="AC1078"/>
+      <c r="W1078" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="X1078" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="Y1078" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="Z1078" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="AA1078" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="AB1078" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC1078" t="n">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" t="s">
@@ -68052,23 +68332,37 @@
         <v>2023</v>
       </c>
       <c r="C1079" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D1079" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1079" t="n">
-        <v>10913962</v>
-      </c>
-      <c r="F1079"/>
-      <c r="G1079"/>
-      <c r="H1079"/>
-      <c r="I1079"/>
-      <c r="J1079"/>
+        <v>47.3</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>68.8</v>
+      </c>
       <c r="K1079"/>
       <c r="L1079"/>
-      <c r="M1079"/>
-      <c r="N1079"/>
+      <c r="M1079" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>48.1</v>
+      </c>
       <c r="O1079"/>
       <c r="P1079"/>
       <c r="Q1079"/>
@@ -68077,13 +68371,27 @@
       <c r="T1079"/>
       <c r="U1079"/>
       <c r="V1079"/>
-      <c r="W1079"/>
-      <c r="X1079"/>
-      <c r="Y1079"/>
-      <c r="Z1079"/>
-      <c r="AA1079"/>
-      <c r="AB1079"/>
-      <c r="AC1079"/>
+      <c r="W1079" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="X1079" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Y1079" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="Z1079" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="AA1079" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB1079" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="AC1079" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" t="s">
@@ -68093,23 +68401,37 @@
         <v>2023</v>
       </c>
       <c r="C1080" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D1080" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1080" t="n">
-        <v>1095429</v>
-      </c>
-      <c r="F1080"/>
-      <c r="G1080"/>
-      <c r="H1080"/>
-      <c r="I1080"/>
-      <c r="J1080"/>
+        <v>89.8</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>117</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>98.4</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>220.7</v>
+      </c>
       <c r="K1080"/>
       <c r="L1080"/>
-      <c r="M1080"/>
-      <c r="N1080"/>
+      <c r="M1080" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>92.6</v>
+      </c>
       <c r="O1080"/>
       <c r="P1080"/>
       <c r="Q1080"/>
@@ -68118,13 +68440,2175 @@
       <c r="T1080"/>
       <c r="U1080"/>
       <c r="V1080"/>
-      <c r="W1080"/>
-      <c r="X1080"/>
-      <c r="Y1080"/>
-      <c r="Z1080"/>
-      <c r="AA1080"/>
-      <c r="AB1080"/>
-      <c r="AC1080"/>
+      <c r="W1080" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="X1080" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Y1080" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="Z1080" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="AA1080" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="AB1080" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="AC1080" t="n">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>817045</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>51716</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>307619</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>134831</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>63522</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>54165</v>
+      </c>
+      <c r="K1081"/>
+      <c r="L1081"/>
+      <c r="M1081" t="n">
+        <v>52469</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>61503</v>
+      </c>
+      <c r="O1081"/>
+      <c r="P1081"/>
+      <c r="Q1081"/>
+      <c r="R1081"/>
+      <c r="S1081"/>
+      <c r="T1081"/>
+      <c r="U1081"/>
+      <c r="V1081"/>
+      <c r="W1081" t="n">
+        <v>8044</v>
+      </c>
+      <c r="X1081" t="n">
+        <v>33895</v>
+      </c>
+      <c r="Y1081" t="n">
+        <v>13162</v>
+      </c>
+      <c r="Z1081" t="n">
+        <v>17505</v>
+      </c>
+      <c r="AA1081" t="n">
+        <v>143836</v>
+      </c>
+      <c r="AB1081" t="n">
+        <v>67969</v>
+      </c>
+      <c r="AC1081" t="n">
+        <v>114428</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>500</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>43</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>289</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>107</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>80</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1082"/>
+      <c r="L1082"/>
+      <c r="M1082" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1082"/>
+      <c r="P1082"/>
+      <c r="Q1082"/>
+      <c r="R1082"/>
+      <c r="S1082"/>
+      <c r="T1082"/>
+      <c r="U1082"/>
+      <c r="V1082"/>
+      <c r="W1082" t="n">
+        <v>8</v>
+      </c>
+      <c r="X1082" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y1082" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z1082" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA1082" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB1082" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC1082" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>15395292</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>2117928</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>12451383</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>7212310</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>1811707</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>2725543</v>
+      </c>
+      <c r="K1083"/>
+      <c r="L1083"/>
+      <c r="M1083" t="n">
+        <v>95843</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>96</v>
+      </c>
+      <c r="O1083"/>
+      <c r="P1083"/>
+      <c r="Q1083"/>
+      <c r="R1083"/>
+      <c r="S1083"/>
+      <c r="T1083"/>
+      <c r="U1083"/>
+      <c r="V1083"/>
+      <c r="W1083" t="n">
+        <v>42674</v>
+      </c>
+      <c r="X1083" t="n">
+        <v>559230</v>
+      </c>
+      <c r="Y1083" t="n">
+        <v>99918</v>
+      </c>
+      <c r="Z1083" t="n">
+        <v>336</v>
+      </c>
+      <c r="AA1083" t="n">
+        <v>672561</v>
+      </c>
+      <c r="AB1083" t="n">
+        <v>54566</v>
+      </c>
+      <c r="AC1083" t="n">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>8396286</v>
+      </c>
+      <c r="F1084"/>
+      <c r="G1084"/>
+      <c r="H1084"/>
+      <c r="I1084"/>
+      <c r="J1084"/>
+      <c r="K1084"/>
+      <c r="L1084"/>
+      <c r="M1084"/>
+      <c r="N1084"/>
+      <c r="O1084"/>
+      <c r="P1084"/>
+      <c r="Q1084"/>
+      <c r="R1084"/>
+      <c r="S1084"/>
+      <c r="T1084"/>
+      <c r="U1084"/>
+      <c r="V1084"/>
+      <c r="W1084"/>
+      <c r="X1084"/>
+      <c r="Y1084"/>
+      <c r="Z1084"/>
+      <c r="AA1084"/>
+      <c r="AB1084"/>
+      <c r="AC1084"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>133560</v>
+      </c>
+      <c r="F1085"/>
+      <c r="G1085"/>
+      <c r="H1085"/>
+      <c r="I1085"/>
+      <c r="J1085"/>
+      <c r="K1085"/>
+      <c r="L1085"/>
+      <c r="M1085"/>
+      <c r="N1085"/>
+      <c r="O1085"/>
+      <c r="P1085"/>
+      <c r="Q1085"/>
+      <c r="R1085"/>
+      <c r="S1085"/>
+      <c r="T1085"/>
+      <c r="U1085"/>
+      <c r="V1085"/>
+      <c r="W1085"/>
+      <c r="X1085"/>
+      <c r="Y1085"/>
+      <c r="Z1085"/>
+      <c r="AA1085"/>
+      <c r="AB1085"/>
+      <c r="AC1085"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>1000159</v>
+      </c>
+      <c r="F1086"/>
+      <c r="G1086"/>
+      <c r="H1086"/>
+      <c r="I1086"/>
+      <c r="J1086"/>
+      <c r="K1086"/>
+      <c r="L1086"/>
+      <c r="M1086"/>
+      <c r="N1086"/>
+      <c r="O1086"/>
+      <c r="P1086"/>
+      <c r="Q1086"/>
+      <c r="R1086"/>
+      <c r="S1086"/>
+      <c r="T1086"/>
+      <c r="U1086"/>
+      <c r="V1086"/>
+      <c r="W1086"/>
+      <c r="X1086"/>
+      <c r="Y1086"/>
+      <c r="Z1086"/>
+      <c r="AA1086"/>
+      <c r="AB1086"/>
+      <c r="AC1086"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>1234207</v>
+      </c>
+      <c r="F1087"/>
+      <c r="G1087"/>
+      <c r="H1087"/>
+      <c r="I1087"/>
+      <c r="J1087"/>
+      <c r="K1087"/>
+      <c r="L1087"/>
+      <c r="M1087"/>
+      <c r="N1087"/>
+      <c r="O1087"/>
+      <c r="P1087"/>
+      <c r="Q1087"/>
+      <c r="R1087"/>
+      <c r="S1087"/>
+      <c r="T1087"/>
+      <c r="U1087"/>
+      <c r="V1087"/>
+      <c r="W1087"/>
+      <c r="X1087"/>
+      <c r="Y1087"/>
+      <c r="Z1087"/>
+      <c r="AA1087"/>
+      <c r="AB1087"/>
+      <c r="AC1087"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>100488</v>
+      </c>
+      <c r="F1088"/>
+      <c r="G1088"/>
+      <c r="H1088"/>
+      <c r="I1088"/>
+      <c r="J1088"/>
+      <c r="K1088"/>
+      <c r="L1088"/>
+      <c r="M1088"/>
+      <c r="N1088"/>
+      <c r="O1088"/>
+      <c r="P1088"/>
+      <c r="Q1088"/>
+      <c r="R1088"/>
+      <c r="S1088"/>
+      <c r="T1088"/>
+      <c r="U1088"/>
+      <c r="V1088"/>
+      <c r="W1088"/>
+      <c r="X1088"/>
+      <c r="Y1088"/>
+      <c r="Z1088"/>
+      <c r="AA1088"/>
+      <c r="AB1088"/>
+      <c r="AC1088"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>16087</v>
+      </c>
+      <c r="F1089"/>
+      <c r="G1089"/>
+      <c r="H1089"/>
+      <c r="I1089"/>
+      <c r="J1089"/>
+      <c r="K1089"/>
+      <c r="L1089"/>
+      <c r="M1089"/>
+      <c r="N1089"/>
+      <c r="O1089"/>
+      <c r="P1089"/>
+      <c r="Q1089"/>
+      <c r="R1089"/>
+      <c r="S1089"/>
+      <c r="T1089"/>
+      <c r="U1089"/>
+      <c r="V1089"/>
+      <c r="W1089"/>
+      <c r="X1089"/>
+      <c r="Y1089"/>
+      <c r="Z1089"/>
+      <c r="AA1089"/>
+      <c r="AB1089"/>
+      <c r="AC1089"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>56355</v>
+      </c>
+      <c r="F1090"/>
+      <c r="G1090"/>
+      <c r="H1090"/>
+      <c r="I1090"/>
+      <c r="J1090"/>
+      <c r="K1090"/>
+      <c r="L1090"/>
+      <c r="M1090"/>
+      <c r="N1090"/>
+      <c r="O1090"/>
+      <c r="P1090"/>
+      <c r="Q1090"/>
+      <c r="R1090"/>
+      <c r="S1090"/>
+      <c r="T1090"/>
+      <c r="U1090"/>
+      <c r="V1090"/>
+      <c r="W1090"/>
+      <c r="X1090"/>
+      <c r="Y1090"/>
+      <c r="Z1090"/>
+      <c r="AA1090"/>
+      <c r="AB1090"/>
+      <c r="AC1090"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>70244</v>
+      </c>
+      <c r="F1091"/>
+      <c r="G1091"/>
+      <c r="H1091"/>
+      <c r="I1091"/>
+      <c r="J1091"/>
+      <c r="K1091"/>
+      <c r="L1091"/>
+      <c r="M1091"/>
+      <c r="N1091"/>
+      <c r="O1091"/>
+      <c r="P1091"/>
+      <c r="Q1091"/>
+      <c r="R1091"/>
+      <c r="S1091"/>
+      <c r="T1091"/>
+      <c r="U1091"/>
+      <c r="V1091"/>
+      <c r="W1091"/>
+      <c r="X1091"/>
+      <c r="Y1091"/>
+      <c r="Z1091"/>
+      <c r="AA1091"/>
+      <c r="AB1091"/>
+      <c r="AC1091"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>45354</v>
+      </c>
+      <c r="F1092"/>
+      <c r="G1092"/>
+      <c r="H1092"/>
+      <c r="I1092"/>
+      <c r="J1092"/>
+      <c r="K1092"/>
+      <c r="L1092"/>
+      <c r="M1092"/>
+      <c r="N1092"/>
+      <c r="O1092"/>
+      <c r="P1092"/>
+      <c r="Q1092"/>
+      <c r="R1092"/>
+      <c r="S1092"/>
+      <c r="T1092"/>
+      <c r="U1092"/>
+      <c r="V1092"/>
+      <c r="W1092"/>
+      <c r="X1092"/>
+      <c r="Y1092"/>
+      <c r="Z1092"/>
+      <c r="AA1092"/>
+      <c r="AB1092"/>
+      <c r="AC1092"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>188041</v>
+      </c>
+      <c r="F1093"/>
+      <c r="G1093"/>
+      <c r="H1093"/>
+      <c r="I1093"/>
+      <c r="J1093"/>
+      <c r="K1093"/>
+      <c r="L1093"/>
+      <c r="M1093"/>
+      <c r="N1093"/>
+      <c r="O1093"/>
+      <c r="P1093"/>
+      <c r="Q1093"/>
+      <c r="R1093"/>
+      <c r="S1093"/>
+      <c r="T1093"/>
+      <c r="U1093"/>
+      <c r="V1093"/>
+      <c r="W1093"/>
+      <c r="X1093"/>
+      <c r="Y1093"/>
+      <c r="Z1093"/>
+      <c r="AA1093"/>
+      <c r="AB1093"/>
+      <c r="AC1093"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>10913962</v>
+      </c>
+      <c r="F1094"/>
+      <c r="G1094"/>
+      <c r="H1094"/>
+      <c r="I1094"/>
+      <c r="J1094"/>
+      <c r="K1094"/>
+      <c r="L1094"/>
+      <c r="M1094"/>
+      <c r="N1094"/>
+      <c r="O1094"/>
+      <c r="P1094"/>
+      <c r="Q1094"/>
+      <c r="R1094"/>
+      <c r="S1094"/>
+      <c r="T1094"/>
+      <c r="U1094"/>
+      <c r="V1094"/>
+      <c r="W1094"/>
+      <c r="X1094"/>
+      <c r="Y1094"/>
+      <c r="Z1094"/>
+      <c r="AA1094"/>
+      <c r="AB1094"/>
+      <c r="AC1094"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>1095429</v>
+      </c>
+      <c r="F1095"/>
+      <c r="G1095"/>
+      <c r="H1095"/>
+      <c r="I1095"/>
+      <c r="J1095"/>
+      <c r="K1095"/>
+      <c r="L1095"/>
+      <c r="M1095"/>
+      <c r="N1095"/>
+      <c r="O1095"/>
+      <c r="P1095"/>
+      <c r="Q1095"/>
+      <c r="R1095"/>
+      <c r="S1095"/>
+      <c r="T1095"/>
+      <c r="U1095"/>
+      <c r="V1095"/>
+      <c r="W1095"/>
+      <c r="X1095"/>
+      <c r="Y1095"/>
+      <c r="Z1095"/>
+      <c r="AA1095"/>
+      <c r="AB1095"/>
+      <c r="AC1095"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>9818533</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>5013717</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>2189622</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>453296</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>1253597</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>194398</v>
+      </c>
+      <c r="K1096"/>
+      <c r="L1096"/>
+      <c r="M1096" t="n">
+        <v>1418221</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>481532</v>
+      </c>
+      <c r="O1096"/>
+      <c r="P1096"/>
+      <c r="Q1096"/>
+      <c r="R1096"/>
+      <c r="S1096"/>
+      <c r="T1096"/>
+      <c r="U1096"/>
+      <c r="V1096"/>
+      <c r="W1096" t="n">
+        <v>11742</v>
+      </c>
+      <c r="X1096" t="n">
+        <v>221663</v>
+      </c>
+      <c r="Y1096" t="n">
+        <v>54925</v>
+      </c>
+      <c r="Z1096" t="n">
+        <v>33760</v>
+      </c>
+      <c r="AA1096" t="n">
+        <v>189525</v>
+      </c>
+      <c r="AB1096" t="n">
+        <v>378901</v>
+      </c>
+      <c r="AC1096" t="n">
+        <v>113255</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>11238168</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>340911</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>9900829</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>1773823</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>2479465</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>4445061</v>
+      </c>
+      <c r="K1097"/>
+      <c r="L1097"/>
+      <c r="M1097" t="n">
+        <v>335144</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>147993</v>
+      </c>
+      <c r="O1097"/>
+      <c r="P1097"/>
+      <c r="Q1097"/>
+      <c r="R1097"/>
+      <c r="S1097"/>
+      <c r="T1097"/>
+      <c r="U1097"/>
+      <c r="V1097"/>
+      <c r="W1097" t="n">
+        <v>62656</v>
+      </c>
+      <c r="X1097" t="n">
+        <v>921490</v>
+      </c>
+      <c r="Y1097" t="n">
+        <v>218334</v>
+      </c>
+      <c r="Z1097" t="n">
+        <v>11756</v>
+      </c>
+      <c r="AA1097" t="n">
+        <v>399858</v>
+      </c>
+      <c r="AB1097" t="n">
+        <v>79650</v>
+      </c>
+      <c r="AC1097" t="n">
+        <v>22027</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K1098"/>
+      <c r="L1098"/>
+      <c r="M1098" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O1098"/>
+      <c r="P1098"/>
+      <c r="Q1098"/>
+      <c r="R1098"/>
+      <c r="S1098"/>
+      <c r="T1098"/>
+      <c r="U1098"/>
+      <c r="V1098"/>
+      <c r="W1098" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X1098" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y1098" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Z1098" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="AA1098" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AB1098" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="AC1098" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>6170630</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>559645</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>4033396</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2218666</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>1058921</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>522714</v>
+      </c>
+      <c r="K1099"/>
+      <c r="L1099"/>
+      <c r="M1099" t="n">
+        <v>200807</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>288119</v>
+      </c>
+      <c r="O1099"/>
+      <c r="P1099"/>
+      <c r="Q1099"/>
+      <c r="R1099"/>
+      <c r="S1099"/>
+      <c r="T1099"/>
+      <c r="U1099"/>
+      <c r="V1099"/>
+      <c r="W1099" t="n">
+        <v>16970</v>
+      </c>
+      <c r="X1099" t="n">
+        <v>164292</v>
+      </c>
+      <c r="Y1099" t="n">
+        <v>51833</v>
+      </c>
+      <c r="Z1099" t="n">
+        <v>31631</v>
+      </c>
+      <c r="AA1099" t="n">
+        <v>777804</v>
+      </c>
+      <c r="AB1099" t="n">
+        <v>123983</v>
+      </c>
+      <c r="AC1099" t="n">
+        <v>155245</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="K1100"/>
+      <c r="L1100"/>
+      <c r="M1100" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>79.6</v>
+      </c>
+      <c r="O1100"/>
+      <c r="P1100"/>
+      <c r="Q1100"/>
+      <c r="R1100"/>
+      <c r="S1100"/>
+      <c r="T1100"/>
+      <c r="U1100"/>
+      <c r="V1100"/>
+      <c r="W1100" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="X1100" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="Y1100" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="Z1100" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="AA1100" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="AB1100" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="AC1100" t="n">
+        <v>144.2</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>101841296</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>25473658</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>39094076</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>9402014</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>14555966</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>5642015</v>
+      </c>
+      <c r="K1101"/>
+      <c r="L1101"/>
+      <c r="M1101" t="n">
+        <v>19193224</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>6142010</v>
+      </c>
+      <c r="O1101"/>
+      <c r="P1101"/>
+      <c r="Q1101"/>
+      <c r="R1101"/>
+      <c r="S1101"/>
+      <c r="T1101"/>
+      <c r="U1101"/>
+      <c r="V1101"/>
+      <c r="W1101" t="n">
+        <v>317092</v>
+      </c>
+      <c r="X1101" t="n">
+        <v>8173196</v>
+      </c>
+      <c r="Y1101" t="n">
+        <v>1003793</v>
+      </c>
+      <c r="Z1101" t="n">
+        <v>592617</v>
+      </c>
+      <c r="AA1101" t="n">
+        <v>4950614</v>
+      </c>
+      <c r="AB1101" t="n">
+        <v>3500434</v>
+      </c>
+      <c r="AC1101" t="n">
+        <v>2894662</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="K1102"/>
+      <c r="L1102"/>
+      <c r="M1102" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="O1102"/>
+      <c r="P1102"/>
+      <c r="Q1102"/>
+      <c r="R1102"/>
+      <c r="S1102"/>
+      <c r="T1102"/>
+      <c r="U1102"/>
+      <c r="V1102"/>
+      <c r="W1102" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="X1102" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y1102" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Z1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA1102" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB1102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC1102" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K1103"/>
+      <c r="L1103"/>
+      <c r="M1103" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="O1103"/>
+      <c r="P1103"/>
+      <c r="Q1103"/>
+      <c r="R1103"/>
+      <c r="S1103"/>
+      <c r="T1103"/>
+      <c r="U1103"/>
+      <c r="V1103"/>
+      <c r="W1103" t="n">
+        <v>47</v>
+      </c>
+      <c r="X1103" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y1103" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Z1103" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA1103" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AB1103" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC1103" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>8792009</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>2961990</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>5129147</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>429915</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>2316849</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>1165003</v>
+      </c>
+      <c r="K1104"/>
+      <c r="L1104"/>
+      <c r="M1104" t="n">
+        <v>94302</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>-27763</v>
+      </c>
+      <c r="O1104"/>
+      <c r="P1104"/>
+      <c r="Q1104"/>
+      <c r="R1104"/>
+      <c r="S1104"/>
+      <c r="T1104"/>
+      <c r="U1104"/>
+      <c r="V1104"/>
+      <c r="W1104" t="n">
+        <v>105924</v>
+      </c>
+      <c r="X1104" t="n">
+        <v>896230</v>
+      </c>
+      <c r="Y1104" t="n">
+        <v>215225</v>
+      </c>
+      <c r="Z1104" t="n">
+        <v>21237</v>
+      </c>
+      <c r="AA1104" t="n">
+        <v>489429</v>
+      </c>
+      <c r="AB1104" t="n">
+        <v>127006</v>
+      </c>
+      <c r="AC1104" t="n">
+        <v>-3339</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>43</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="K1105"/>
+      <c r="L1105"/>
+      <c r="M1105" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="O1105"/>
+      <c r="P1105"/>
+      <c r="Q1105"/>
+      <c r="R1105"/>
+      <c r="S1105"/>
+      <c r="T1105"/>
+      <c r="U1105"/>
+      <c r="V1105"/>
+      <c r="W1105" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="X1105" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="Y1105" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z1105" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA1105" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB1105" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AC1105" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>815430</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>1677892</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>853714</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>708255</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>1149489</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>907287</v>
+      </c>
+      <c r="K1106"/>
+      <c r="L1106"/>
+      <c r="M1106" t="n">
+        <v>1137949</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>776109</v>
+      </c>
+      <c r="O1106"/>
+      <c r="P1106"/>
+      <c r="Q1106"/>
+      <c r="R1106"/>
+      <c r="S1106"/>
+      <c r="T1106"/>
+      <c r="U1106"/>
+      <c r="V1106"/>
+      <c r="W1106" t="n">
+        <v>441037</v>
+      </c>
+      <c r="X1106" t="n">
+        <v>908150</v>
+      </c>
+      <c r="Y1106" t="n">
+        <v>807885</v>
+      </c>
+      <c r="Z1106" t="n">
+        <v>937267</v>
+      </c>
+      <c r="AA1106" t="n">
+        <v>600444</v>
+      </c>
+      <c r="AB1106" t="n">
+        <v>803834</v>
+      </c>
+      <c r="AC1106" t="n">
+        <v>454453</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>8661155</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>1128060</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>3414042</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>1241432</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>949232</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>638862</v>
+      </c>
+      <c r="K1107"/>
+      <c r="L1107"/>
+      <c r="M1107" t="n">
+        <v>776191</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>620529</v>
+      </c>
+      <c r="O1107"/>
+      <c r="P1107"/>
+      <c r="Q1107"/>
+      <c r="R1107"/>
+      <c r="S1107"/>
+      <c r="T1107"/>
+      <c r="U1107"/>
+      <c r="V1107"/>
+      <c r="W1107" t="n">
+        <v>46120</v>
+      </c>
+      <c r="X1107" t="n">
+        <v>400163</v>
+      </c>
+      <c r="Y1107" t="n">
+        <v>138234</v>
+      </c>
+      <c r="Z1107" t="n">
+        <v>213289</v>
+      </c>
+      <c r="AA1107" t="n">
+        <v>1122750</v>
+      </c>
+      <c r="AB1107" t="n">
+        <v>710265</v>
+      </c>
+      <c r="AC1107" t="n">
+        <v>676027</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K1108"/>
+      <c r="L1108"/>
+      <c r="M1108" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="O1108"/>
+      <c r="P1108"/>
+      <c r="Q1108"/>
+      <c r="R1108"/>
+      <c r="S1108"/>
+      <c r="T1108"/>
+      <c r="U1108"/>
+      <c r="V1108"/>
+      <c r="W1108" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="X1108" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="Y1108" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="Z1108" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="AA1108" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="AB1108" t="n">
+        <v>65.1</v>
+      </c>
+      <c r="AC1108" t="n">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K1109"/>
+      <c r="L1109"/>
+      <c r="M1109" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="O1109"/>
+      <c r="P1109"/>
+      <c r="Q1109"/>
+      <c r="R1109"/>
+      <c r="S1109"/>
+      <c r="T1109"/>
+      <c r="U1109"/>
+      <c r="V1109"/>
+      <c r="W1109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X1109" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="Y1109" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z1109" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AA1109" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB1109" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AC1109" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>7279359</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>1752068</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>5201542</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>105052</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>2497222</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>1643945</v>
+      </c>
+      <c r="K1110"/>
+      <c r="L1110"/>
+      <c r="M1110" t="n">
+        <v>-401102</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>-141673</v>
+      </c>
+      <c r="O1110"/>
+      <c r="P1110"/>
+      <c r="Q1110"/>
+      <c r="R1110"/>
+      <c r="S1110"/>
+      <c r="T1110"/>
+      <c r="U1110"/>
+      <c r="V1110"/>
+      <c r="W1110" t="n">
+        <v>149155</v>
+      </c>
+      <c r="X1110" t="n">
+        <v>592633</v>
+      </c>
+      <c r="Y1110" t="n">
+        <v>213535</v>
+      </c>
+      <c r="Z1110" t="n">
+        <v>518</v>
+      </c>
+      <c r="AA1110" t="n">
+        <v>584886</v>
+      </c>
+      <c r="AB1110" t="n">
+        <v>247106</v>
+      </c>
+      <c r="AC1110" t="n">
+        <v>36013</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="K1111"/>
+      <c r="L1111"/>
+      <c r="M1111" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>-8.3</v>
+      </c>
+      <c r="O1111"/>
+      <c r="P1111"/>
+      <c r="Q1111"/>
+      <c r="R1111"/>
+      <c r="S1111"/>
+      <c r="T1111"/>
+      <c r="U1111"/>
+      <c r="V1111"/>
+      <c r="W1111" t="n">
+        <v>82.1</v>
+      </c>
+      <c r="X1111" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="Y1111" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="Z1111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA1111" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB1111" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AC1111" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>8909373</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>33878643</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>16909041</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>779141</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>39312706</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>30350683</v>
+      </c>
+      <c r="K1112"/>
+      <c r="L1112"/>
+      <c r="M1112" t="n">
+        <v>-7644545</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>-2303520</v>
+      </c>
+      <c r="O1112"/>
+      <c r="P1112"/>
+      <c r="Q1112"/>
+      <c r="R1112"/>
+      <c r="S1112"/>
+      <c r="T1112"/>
+      <c r="U1112"/>
+      <c r="V1112"/>
+      <c r="W1112" t="n">
+        <v>18542386</v>
+      </c>
+      <c r="X1112" t="n">
+        <v>17484388</v>
+      </c>
+      <c r="Y1112" t="n">
+        <v>16223624</v>
+      </c>
+      <c r="Z1112" t="n">
+        <v>29619</v>
+      </c>
+      <c r="AA1112" t="n">
+        <v>4066338</v>
+      </c>
+      <c r="AB1112" t="n">
+        <v>3635568</v>
+      </c>
+      <c r="AC1112" t="n">
+        <v>314722</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="K1113"/>
+      <c r="L1113"/>
+      <c r="M1113" t="n">
+        <v>-51.7</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="O1113"/>
+      <c r="P1113"/>
+      <c r="Q1113"/>
+      <c r="R1113"/>
+      <c r="S1113"/>
+      <c r="T1113"/>
+      <c r="U1113"/>
+      <c r="V1113"/>
+      <c r="W1113" t="n">
+        <v>323.4</v>
+      </c>
+      <c r="X1113" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="Y1113" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="Z1113" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA1113" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AB1113" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="AC1113" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>29445781</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>6890660</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>13948124</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>4478203</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>4757768</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>2326477</v>
+      </c>
+      <c r="K1114"/>
+      <c r="L1114"/>
+      <c r="M1114" t="n">
+        <v>1632494</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>1704853</v>
+      </c>
+      <c r="O1114"/>
+      <c r="P1114"/>
+      <c r="Q1114"/>
+      <c r="R1114"/>
+      <c r="S1114"/>
+      <c r="T1114"/>
+      <c r="U1114"/>
+      <c r="V1114"/>
+      <c r="W1114" t="n">
+        <v>181713</v>
+      </c>
+      <c r="X1114" t="n">
+        <v>1725192</v>
+      </c>
+      <c r="Y1114" t="n">
+        <v>478771</v>
+      </c>
+      <c r="Z1114" t="n">
+        <v>342524</v>
+      </c>
+      <c r="AA1114" t="n">
+        <v>2791787</v>
+      </c>
+      <c r="AB1114" t="n">
+        <v>1090538</v>
+      </c>
+      <c r="AC1114" t="n">
+        <v>1044801</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>36039363</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>133240396</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>45342207</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>33213451</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>74899533</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>42951668</v>
+      </c>
+      <c r="K1115"/>
+      <c r="L1115"/>
+      <c r="M1115" t="n">
+        <v>31113497</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>27719831</v>
+      </c>
+      <c r="O1115"/>
+      <c r="P1115"/>
+      <c r="Q1115"/>
+      <c r="R1115"/>
+      <c r="S1115"/>
+      <c r="T1115"/>
+      <c r="U1115"/>
+      <c r="V1115"/>
+      <c r="W1115" t="n">
+        <v>22589841</v>
+      </c>
+      <c r="X1115" t="n">
+        <v>50898141</v>
+      </c>
+      <c r="Y1115" t="n">
+        <v>36375253</v>
+      </c>
+      <c r="Z1115" t="n">
+        <v>19567211</v>
+      </c>
+      <c r="AA1115" t="n">
+        <v>19409517</v>
+      </c>
+      <c r="AB1115" t="n">
+        <v>16044634</v>
+      </c>
+      <c r="AC1115" t="n">
+        <v>9130639</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>80535632</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>13845145</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>48397483</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>17073432</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>15867320</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>8930347</v>
+      </c>
+      <c r="K1116"/>
+      <c r="L1116"/>
+      <c r="M1116" t="n">
+        <v>4584690</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>3713879</v>
+      </c>
+      <c r="O1116"/>
+      <c r="P1116"/>
+      <c r="Q1116"/>
+      <c r="R1116"/>
+      <c r="S1116"/>
+      <c r="T1116"/>
+      <c r="U1116"/>
+      <c r="V1116"/>
+      <c r="W1116" t="n">
+        <v>391574</v>
+      </c>
+      <c r="X1116" t="n">
+        <v>4803157</v>
+      </c>
+      <c r="Y1116" t="n">
+        <v>1331653</v>
+      </c>
+      <c r="Z1116" t="n">
+        <v>901953</v>
+      </c>
+      <c r="AA1116" t="n">
+        <v>4501402</v>
+      </c>
+      <c r="AB1116" t="n">
+        <v>2639566</v>
+      </c>
+      <c r="AC1116" t="n">
+        <v>1951514</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
